--- a/results/CSL.xlsx
+++ b/results/CSL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6402,6 +6402,2108 @@
       </c>
       <c r="P121" t="n">
         <v>-12.03927707217031</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>47</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="n">
+        <v>0.5729134678840637</v>
+      </c>
+      <c r="E122" t="n">
+        <v>72.42620158172797</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>72.42620158172797</v>
+      </c>
+      <c r="H122" t="n">
+        <v>52</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-7.142891354719789</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>270</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="n">
+        <v>3.814752578735352</v>
+      </c>
+      <c r="E123" t="n">
+        <v>101.31374345072</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>105.9320997901114</v>
+      </c>
+      <c r="H123" t="n">
+        <v>47</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-25.68752870021648</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>22</v>
+      </c>
+      <c r="M123" t="n">
+        <v>21.18311784479124</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4.618356339391397</v>
+      </c>
+      <c r="O123" t="n">
+        <v>-80.13062560592871</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-84.74898194532011</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>280</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>4.184172630310059</v>
+      </c>
+      <c r="E124" t="n">
+        <v>78.1001398770987</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>101.353963878911</v>
+      </c>
+      <c r="H124" t="n">
+        <v>46</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-4.731158501025163</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>12</v>
+      </c>
+      <c r="M124" t="n">
+        <v>10.48387629822791</v>
+      </c>
+      <c r="N124" t="n">
+        <v>23.25382400181233</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-67.61626357887079</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-90.87008758068312</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>324</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="n">
+        <v>7.984543800354004</v>
+      </c>
+      <c r="E125" t="n">
+        <v>39.58045010027587</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>43.28578569888402</v>
+      </c>
+      <c r="H125" t="n">
+        <v>52</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-10.98228689832496</v>
+      </c>
+      <c r="J125" t="n">
+        <v>27</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>24</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-5.589866037233524</v>
+      </c>
+      <c r="N125" t="n">
+        <v>3.705335598608151</v>
+      </c>
+      <c r="O125" t="n">
+        <v>-45.1703161375094</v>
+      </c>
+      <c r="P125" t="n">
+        <v>-48.87565173611755</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>363</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="n">
+        <v>8.834663391113281</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.3798434683935864</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>34.35694857612618</v>
+      </c>
+      <c r="H126" t="n">
+        <v>33</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-9.318450836567472</v>
+      </c>
+      <c r="J126" t="n">
+        <v>52</v>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>41</v>
+      </c>
+      <c r="M126" t="n">
+        <v>10.19851862342691</v>
+      </c>
+      <c r="N126" t="n">
+        <v>34.73679204451977</v>
+      </c>
+      <c r="O126" t="n">
+        <v>10.5783620918205</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-24.15842995269927</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>395</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>11.74603176116943</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-57.29798799295942</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.055270329782779</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-68.51463597297067</v>
+      </c>
+      <c r="J127" t="n">
+        <v>46</v>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>9</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-17.11525747310114</v>
+      </c>
+      <c r="N127" t="n">
+        <v>58.3532583227422</v>
+      </c>
+      <c r="O127" t="n">
+        <v>40.18273051985828</v>
+      </c>
+      <c r="P127" t="n">
+        <v>-18.17052780288392</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>481</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>3.388190984725952</v>
+      </c>
+      <c r="E128" t="n">
+        <v>69.78093818614924</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>84.76984901627762</v>
+      </c>
+      <c r="H128" t="n">
+        <v>50</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-6.529218271181138</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>15</v>
+      </c>
+      <c r="M128" t="n">
+        <v>16.14756433754648</v>
+      </c>
+      <c r="N128" t="n">
+        <v>14.98891083012838</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-53.63337384860276</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-68.62228467873113</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>508</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>4.718586444854736</v>
+      </c>
+      <c r="E129" t="n">
+        <v>62.30754437859358</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>67.48271978948227</v>
+      </c>
+      <c r="H129" t="n">
+        <v>50</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-4.899994669196727</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>34</v>
+      </c>
+      <c r="M129" t="n">
+        <v>39.01926847638136</v>
+      </c>
+      <c r="N129" t="n">
+        <v>5.175175410888691</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-23.28827590221223</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-28.46345131310092</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>537</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>7.06010627746582</v>
+      </c>
+      <c r="E130" t="n">
+        <v>24.11865475050986</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>27.19030794794213</v>
+      </c>
+      <c r="H130" t="n">
+        <v>49</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-13.93693592432169</v>
+      </c>
+      <c r="J130" t="n">
+        <v>10</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>5</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-7.087172625150309</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3.071653197432276</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-31.20582737566017</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-34.27748057309245</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>561</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>8.206864356994629</v>
+      </c>
+      <c r="E131" t="n">
+        <v>57.64197193871237</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>59.21395615930272</v>
+      </c>
+      <c r="H131" t="n">
+        <v>52</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-20.10623941076431</v>
+      </c>
+      <c r="J131" t="n">
+        <v>11</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>11</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-14.97545006281432</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1.571984220590352</v>
+      </c>
+      <c r="O131" t="n">
+        <v>-72.61742200152669</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-74.18940622211704</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>586</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>8.493727684020996</v>
+      </c>
+      <c r="E132" t="n">
+        <v>43.99905280733825</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>71.07621620334719</v>
+      </c>
+      <c r="H132" t="n">
+        <v>36</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-3.597732383959971</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>50</v>
+      </c>
+      <c r="M132" t="n">
+        <v>38.35314005707633</v>
+      </c>
+      <c r="N132" t="n">
+        <v>27.07716339600893</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-5.645912750261921</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-32.72307614627086</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>599</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>9.863141059875488</v>
+      </c>
+      <c r="E133" t="n">
+        <v>50.68742758468583</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>51.31269143024307</v>
+      </c>
+      <c r="H133" t="n">
+        <v>52</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-2.887465626417892</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>37</v>
+      </c>
+      <c r="M133" t="n">
+        <v>19.14398149030004</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.6252638455572423</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-31.54344609438579</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-32.16870993994304</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>651</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>14.86251354217529</v>
+      </c>
+      <c r="E134" t="n">
+        <v>69.70959881548785</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>91.67255993440885</v>
+      </c>
+      <c r="H134" t="n">
+        <v>48</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-5.543580477399823</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>38</v>
+      </c>
+      <c r="M134" t="n">
+        <v>40.94924596433311</v>
+      </c>
+      <c r="N134" t="n">
+        <v>21.962961118921</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-28.76035285115474</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-50.72331397007574</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>717</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>27.326904296875</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.709242189384518</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>19.12294763851517</v>
+      </c>
+      <c r="H135" t="n">
+        <v>11</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-25.50756630141667</v>
+      </c>
+      <c r="J135" t="n">
+        <v>42</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>32</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.681476758002711</v>
+      </c>
+      <c r="N135" t="n">
+        <v>17.41370544913066</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-0.02776543138180743</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-17.44147088051247</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>728</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>30.33671569824219</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-20.62515372354257</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>7.304344414183796</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-32.89822053346252</v>
+      </c>
+      <c r="J136" t="n">
+        <v>31</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>21</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-8.406697291498052</v>
+      </c>
+      <c r="N136" t="n">
+        <v>27.92949813772637</v>
+      </c>
+      <c r="O136" t="n">
+        <v>12.21845643204452</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-15.71104170568185</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>794</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>24.614990234375</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-0.01178581524058454</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>19.22401180075021</v>
+      </c>
+      <c r="H137" t="n">
+        <v>34</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-5.606469187983806</v>
+      </c>
+      <c r="J137" t="n">
+        <v>16</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>10</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-0.9857699260089609</v>
+      </c>
+      <c r="N137" t="n">
+        <v>19.2357976159908</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-0.9739841107683763</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-20.20978172675917</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>822</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>27.60650253295898</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.205207659268575</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>9.260888989469766</v>
+      </c>
+      <c r="H138" t="n">
+        <v>47</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-13.81854275302952</v>
+      </c>
+      <c r="J138" t="n">
+        <v>12</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>11</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-9.714657382001262</v>
+      </c>
+      <c r="N138" t="n">
+        <v>6.055681330201191</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-12.91986504126984</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-18.97554637147103</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>828</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>28.94849586486816</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-3.535162827184128</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4.195776620702993</v>
+      </c>
+      <c r="H139" t="n">
+        <v>41</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-17.81373965374342</v>
+      </c>
+      <c r="J139" t="n">
+        <v>6</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>5</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-13.90010205339548</v>
+      </c>
+      <c r="N139" t="n">
+        <v>7.730939447887121</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-10.36493922621135</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-18.09587867409847</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>851</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>26.81165504455566</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-15.09597084846307</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>12.49999314211061</v>
+      </c>
+      <c r="H140" t="n">
+        <v>18</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-22.0494469085489</v>
+      </c>
+      <c r="J140" t="n">
+        <v>51</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>37</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-1.756053857468744</v>
+      </c>
+      <c r="N140" t="n">
+        <v>27.59596399057368</v>
+      </c>
+      <c r="O140" t="n">
+        <v>13.33991699099433</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-14.25604699957935</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>861</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>27.95257759094238</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-5.97660857739174</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>7.908152614109484</v>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-25.23110495908124</v>
+      </c>
+      <c r="J141" t="n">
+        <v>41</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>27</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-5.766014399938971</v>
+      </c>
+      <c r="N141" t="n">
+        <v>13.88476119150122</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0.2105941774527693</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-13.67416701404846</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>914</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>26.11109352111816</v>
+      </c>
+      <c r="E142" t="n">
+        <v>74.41247393210664</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>75.24042628006711</v>
+      </c>
+      <c r="H142" t="n">
+        <v>52</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-7.728278527815513</v>
+      </c>
+      <c r="J142" t="n">
+        <v>9</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>0.8279523479604762</v>
+      </c>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>935</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>30.79482841491699</v>
+      </c>
+      <c r="E143" t="n">
+        <v>70.60176859492562</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>72.86121943986156</v>
+      </c>
+      <c r="H143" t="n">
+        <v>52</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-3.632470207101183</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>2.259450844935941</v>
+      </c>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>58.12080383300781</v>
+      </c>
+      <c r="E144" t="n">
+        <v>18.66797234448366</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>18.78635056397884</v>
+      </c>
+      <c r="H144" t="n">
+        <v>52</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-6.464565844706314</v>
+      </c>
+      <c r="J144" t="n">
+        <v>40</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>6</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-3.447763917348494</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.1183782194951775</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-22.11573626183215</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-22.23411448132733</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>61.12384796142578</v>
+      </c>
+      <c r="E145" t="n">
+        <v>30.39873933190832</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>32.4672222258714</v>
+      </c>
+      <c r="H145" t="n">
+        <v>52</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-11.06000683389838</v>
+      </c>
+      <c r="J145" t="n">
+        <v>21</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>15</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-6.638784266612578</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2.068482893963083</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-37.0375235985209</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-39.10600649248398</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>68.97077941894531</v>
+      </c>
+      <c r="E146" t="n">
+        <v>19.09464213931248</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>28.76775606608264</v>
+      </c>
+      <c r="H146" t="n">
+        <v>40</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-5.21262024930109</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>15</v>
+      </c>
+      <c r="M146" t="n">
+        <v>7.918717612496623</v>
+      </c>
+      <c r="N146" t="n">
+        <v>9.673113926770164</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-11.17592452681585</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-20.84903845358602</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>74.43238067626953</v>
+      </c>
+      <c r="E147" t="n">
+        <v>21.54557999737802</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>27.87579962355122</v>
+      </c>
+      <c r="H147" t="n">
+        <v>50</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-5.847004281329816</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>18</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1.810967424050079</v>
+      </c>
+      <c r="N147" t="n">
+        <v>6.330219626173193</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-19.73461257332794</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-26.06483219950114</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1103</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>81.24274444580078</v>
+      </c>
+      <c r="E148" t="n">
+        <v>29.32833075820226</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>30.64323840465936</v>
+      </c>
+      <c r="H148" t="n">
+        <v>52</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-7.033052000768267</v>
+      </c>
+      <c r="J148" t="n">
+        <v>5</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>10</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-4.554474469014802</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1.314907646457094</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-33.88280522721706</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-35.19771287367416</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1124</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>90.67069244384766</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-4.774852119027742</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>18.061860858684</v>
+      </c>
+      <c r="H149" t="n">
+        <v>32</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-9.991454834107806</v>
+      </c>
+      <c r="J149" t="n">
+        <v>52</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>13</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-3.313043691181768</v>
+      </c>
+      <c r="N149" t="n">
+        <v>22.83671297771174</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1.461808427845975</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-21.37490454986576</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1125</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>90.42547607421876</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-3.659601115332735</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>18.38202174882558</v>
+      </c>
+      <c r="H150" t="n">
+        <v>31</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-9.747369100314792</v>
+      </c>
+      <c r="J150" t="n">
+        <v>51</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>12</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-3.050847400425656</v>
+      </c>
+      <c r="N150" t="n">
+        <v>22.04162286415831</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0.6087537149070785</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-21.43286914925123</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1155</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>105.0698852539062</v>
+      </c>
+      <c r="E151" t="n">
+        <v>8.216780474770051</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>23.75923098164373</v>
+      </c>
+      <c r="H151" t="n">
+        <v>49</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-22.32658200460563</v>
+      </c>
+      <c r="J151" t="n">
+        <v>21</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>15</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-16.35822540684823</v>
+      </c>
+      <c r="N151" t="n">
+        <v>15.54245050687368</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-24.57500588161828</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-40.11745638849196</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>112.1554870605469</v>
+      </c>
+      <c r="E152" t="n">
+        <v>31.84358241152444</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>33.52632418610179</v>
+      </c>
+      <c r="H152" t="n">
+        <v>51</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-5.638953138758629</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>23</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2.835261302311698</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1.682741774577348</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-29.00832110921274</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-30.69106288379009</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>130.0351257324219</v>
+      </c>
+      <c r="E153" t="n">
+        <v>33.96046835114178</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>62.57483802093638</v>
+      </c>
+      <c r="H153" t="n">
+        <v>43</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-3.527805639016595</v>
+      </c>
+      <c r="J153" t="n">
+        <v>13</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>8</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-0.9027946785149276</v>
+      </c>
+      <c r="N153" t="n">
+        <v>28.61436966979459</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-34.86326302965671</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-63.47763269945131</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>154.6398620605469</v>
+      </c>
+      <c r="E154" t="n">
+        <v>18.85711331160816</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>36.70756828988483</v>
+      </c>
+      <c r="H154" t="n">
+        <v>18</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-1.533400215851656</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>29</v>
+      </c>
+      <c r="M154" t="n">
+        <v>7.763813784982315</v>
+      </c>
+      <c r="N154" t="n">
+        <v>17.85045497827667</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-11.09329952662584</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-28.94375450490251</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1293</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>179.0857238769531</v>
+      </c>
+      <c r="E155" t="n">
+        <v>62.13528288778264</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>77.07636353272143</v>
+      </c>
+      <c r="H155" t="n">
+        <v>49</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-2.877157445631534</v>
+      </c>
+      <c r="J155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>14.94108064493879</v>
+      </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1302</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>189.9065856933593</v>
+      </c>
+      <c r="E156" t="n">
+        <v>47.75894809765096</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>66.98656673213425</v>
+      </c>
+      <c r="H156" t="n">
+        <v>40</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-4.798793601726735</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>19.22761863448329</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1312</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>208.4641418457031</v>
+      </c>
+      <c r="E157" t="n">
+        <v>23.5369354759138</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>52.12135988465476</v>
+      </c>
+      <c r="H157" t="n">
+        <v>30</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-5.050947947312276</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>28.58442440874095</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1381</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>293.00390625</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.662227616019411</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2.235767664759453</v>
+      </c>
+      <c r="H158" t="n">
+        <v>51</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-22.42243021529147</v>
+      </c>
+      <c r="J158" t="n">
+        <v>16</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>14</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-16.24724824687705</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.5735400487400419</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-17.90947586289646</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-18.48301591163651</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1409</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>273.6774291992188</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-6.686181165588854</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>10.31789756067088</v>
+      </c>
+      <c r="H159" t="n">
+        <v>25</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-17.17016925551058</v>
+      </c>
+      <c r="J159" t="n">
+        <v>37</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>17</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-0.3454669574531811</v>
+      </c>
+      <c r="N159" t="n">
+        <v>17.00407872625973</v>
+      </c>
+      <c r="O159" t="n">
+        <v>6.340714208135673</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-10.66336451812406</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1458</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>266.0117492675781</v>
+      </c>
+      <c r="E160" t="n">
+        <v>10.59578580038508</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>12.83572161190492</v>
+      </c>
+      <c r="H160" t="n">
+        <v>38</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-9.243410449131225</v>
+      </c>
+      <c r="J160" t="n">
+        <v>5</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>14</v>
+      </c>
+      <c r="M160" t="n">
+        <v>5.164160683783824</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2.239935811519841</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-5.431625116601254</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-7.671560928121095</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1496</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>299.7073974609375</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-3.226046888994515</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.2860193461348977</v>
+      </c>
+      <c r="H161" t="n">
+        <v>18</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-26.1904584845284</v>
+      </c>
+      <c r="J161" t="n">
+        <v>39</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>33</v>
+      </c>
+      <c r="M161" t="n">
+        <v>-18.60452068525496</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3.512066235129412</v>
+      </c>
+      <c r="O161" t="n">
+        <v>-15.37847379626045</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-18.89054003138986</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1514</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>293.1799011230469</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-4.02726409996795</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2.518834834222476</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-24.54712785341047</v>
+      </c>
+      <c r="J162" t="n">
+        <v>21</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>15</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-16.79229313789366</v>
+      </c>
+      <c r="N162" t="n">
+        <v>6.546098934190426</v>
+      </c>
+      <c r="O162" t="n">
+        <v>-12.76502903792571</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-19.31112797211613</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>283.4695434570312</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-5.905425176531129</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>7.692295669372938</v>
+      </c>
+      <c r="H163" t="n">
+        <v>26</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-8.934656557577394</v>
+      </c>
+      <c r="J163" t="n">
+        <v>12</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>12</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-7.440608134804219</v>
+      </c>
+      <c r="N163" t="n">
+        <v>13.59772084590407</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-1.53518295827309</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-15.13290380417716</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1571</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>298.50830078125</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-20.21906104572705</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2.266790596244192</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-24.29553448400826</v>
+      </c>
+      <c r="J164" t="n">
+        <v>39</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>11</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-6.342429397476076</v>
+      </c>
+      <c r="N164" t="n">
+        <v>22.48585164197124</v>
+      </c>
+      <c r="O164" t="n">
+        <v>13.87663164825097</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-8.609219993720268</v>
       </c>
     </row>
   </sheetData>
@@ -6415,7 +8517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6628,40 +8730,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67.44186046511628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.85525255769118</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19.09464213931248</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33.86255537969897</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37.3171199925432</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-13.30412694176828</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.46186743485203</v>
+      </c>
+      <c r="J4" t="n">
+        <v>86.04651162790698</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.48648648648649</v>
+      </c>
+      <c r="L4" t="n">
+        <v>24.32432432432433</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-17.34018054733025</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>28.87617822488834</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>27.6123760158622</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>34.72691093788137</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>42.72742862399646</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-11.63545308094169</v>
       </c>
     </row>
